--- a/wing_optimization_SSCC/loads/evolution.xlsx
+++ b/wing_optimization_SSCC/loads/evolution.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Rafael-Documentos-trabalhos\PERIODOS\ITA-2019--\0 - TESE\_works\box_structural_optimization\11th trial SSCC\loads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repositories\compositeoptimization\wing_optimization_SSCC\loads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A87D53-7F22-4EB7-ACB3-CB7424D4BF44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C64DB31-C812-4965-80CA-1CE0B95D4E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="79">
   <si>
     <t>iteration</t>
   </si>
@@ -260,6 +260,12 @@
   </si>
   <si>
     <t>[0, -45, 45, -45, 45, -45, 45, 45, 45, 90, -45, 0, 45, -45, -45, -45, 45, 45, 90, -45, -45, 90, 90, 45, 90, 45, -45, 0, 90, 90, 0, 45, 45, -45, -45, 90, 90, 45, 90, 90, -45, 0, 0, 0, 0, -45, 90, 90, 45, 90, 90, -45, -45, 45, 45, 0, 90, 90, 0, -45, 45, 90, 45, 90, 90, -45, -45, 90, 45, 45, -45, -45, -45, 45, 0, -45, 90, 45, 45, 45, -45, 45, -45, 45, -45, 0]</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>minues total run time</t>
   </si>
 </sst>
 </file>
@@ -5943,6 +5949,64 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Iteration</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5965,16 +6029,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="pt-BR"/>
@@ -6023,6 +6087,64 @@
             <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1200">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Number of plies</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -6039,16 +6161,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="pt-BR"/>
@@ -9002,10 +9124,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -9100,6 +9222,30 @@
         <v>8</v>
       </c>
     </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12">
+        <f>(SUM(B2:B5)*60+SUM(C2:C5))/4</f>
+        <v>161.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <f>C12/60</f>
+        <v>2.6875</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <f>C13*6</f>
+        <v>16.125</v>
+      </c>
+      <c r="D14" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9109,8 +9255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE25C2AA-23FC-4FBB-AF98-456EBBDF3AAC}">
   <dimension ref="A1:Z64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T24" sqref="T24"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>

--- a/wing_optimization_SSCC/loads/evolution.xlsx
+++ b/wing_optimization_SSCC/loads/evolution.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repositories\compositeoptimization\wing_optimization_SSCC\loads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C64DB31-C812-4965-80CA-1CE0B95D4E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1027140B-A9C2-4ED3-A926-121DA0F71FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-18666" yWindow="2405" windowWidth="18775" windowHeight="10066" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="time" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="95">
   <si>
     <t>iteration</t>
   </si>
@@ -267,6 +267,54 @@
   <si>
     <t>minues total run time</t>
   </si>
+  <si>
+    <t>average std</t>
+  </si>
+  <si>
+    <t>Final loads</t>
+  </si>
+  <si>
+    <t>Nzz</t>
+  </si>
+  <si>
+    <t>pnxx</t>
+  </si>
+  <si>
+    <t>pnyy</t>
+  </si>
+  <si>
+    <t>pnxy</t>
+  </si>
+  <si>
+    <t>panel</t>
+  </si>
+  <si>
+    <t>(0.25,0.12)</t>
+  </si>
+  <si>
+    <t>(0.02,0.01)</t>
+  </si>
+  <si>
+    <t>(0.01,0.14)</t>
+  </si>
+  <si>
+    <t>(0.07,0.39)</t>
+  </si>
+  <si>
+    <t>(0.11,0.14)</t>
+  </si>
+  <si>
+    <t>(0.26,0.05)</t>
+  </si>
+  <si>
+    <t>(0.20,0.01)</t>
+  </si>
+  <si>
+    <t>(0.04,0.19)</t>
+  </si>
+  <si>
+    <t>(0.01,0.53)</t>
+  </si>
 </sst>
 </file>
 
@@ -327,7 +375,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -338,6 +386,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9253,18 +9302,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE25C2AA-23FC-4FBB-AF98-456EBBDF3AAC}">
-  <dimension ref="A1:Z64"/>
+  <dimension ref="A1:Z86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I77" sqref="I77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="7" max="7" width="9" customWidth="1"/>
     <col min="13" max="13" width="3.75" customWidth="1"/>
     <col min="16" max="16" width="17.5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="18" max="25" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="19" max="25" width="3.875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10258,6 +10309,13 @@
       </c>
       <c r="M16" t="s">
         <v>20</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>79</v>
+      </c>
+      <c r="R16" s="5">
+        <f>AVERAGE(Q14:Y14)</f>
+        <v>1.0087311357031008</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -11879,6 +11937,8 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
@@ -11886,6 +11946,349 @@
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
     </row>
+    <row r="65" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="66" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>85</v>
+      </c>
+      <c r="D66" t="s">
+        <v>3</v>
+      </c>
+      <c r="E66" t="s">
+        <v>4</v>
+      </c>
+      <c r="F66" t="s">
+        <v>81</v>
+      </c>
+      <c r="G66" t="s">
+        <v>82</v>
+      </c>
+      <c r="H66" t="s">
+        <v>83</v>
+      </c>
+      <c r="I66" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="67" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C67" s="1">
+        <v>10</v>
+      </c>
+      <c r="D67" s="2">
+        <v>-2413.2969069999999</v>
+      </c>
+      <c r="E67" s="2">
+        <v>-607.77428129999998</v>
+      </c>
+      <c r="F67" s="2">
+        <v>291.44217190000001</v>
+      </c>
+      <c r="G67">
+        <f>ABS(D67/D67)</f>
+        <v>1</v>
+      </c>
+      <c r="H67" s="6">
+        <f>ABS(E67/D67)</f>
+        <v>0.25184397308805734</v>
+      </c>
+      <c r="I67" s="6">
+        <f>ABS(F67/D67)</f>
+        <v>0.1207651537009988</v>
+      </c>
+      <c r="J67" t="str">
+        <f>_xlfn.CONCAT("(",G67,",",H67,",",I67)</f>
+        <v>(1,0.251843973088057,0.120765153700999</v>
+      </c>
+    </row>
+    <row r="68" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C68" s="1">
+        <v>11</v>
+      </c>
+      <c r="D68" s="2">
+        <v>-1519.608782</v>
+      </c>
+      <c r="E68" s="2">
+        <v>-40.736502819999998</v>
+      </c>
+      <c r="F68" s="2">
+        <v>-29.929870000000001</v>
+      </c>
+      <c r="G68">
+        <f t="shared" ref="G68:G75" si="1">ABS(D68/D68)</f>
+        <v>1</v>
+      </c>
+      <c r="H68" s="6">
+        <f t="shared" ref="H68:H75" si="2">ABS(E68/D68)</f>
+        <v>2.6807230454660533E-2</v>
+      </c>
+      <c r="I68" s="6">
+        <f t="shared" ref="I68:I75" si="3">ABS(F68/D68)</f>
+        <v>1.9695773250670779E-2</v>
+      </c>
+      <c r="J68" t="str">
+        <f t="shared" ref="J68:J75" si="4">_xlfn.CONCAT("(",G68,",",H68,",",I68)</f>
+        <v>(1,0.0268072304546605,0.0196957732506708</v>
+      </c>
+    </row>
+    <row r="69" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C69" s="1">
+        <v>12</v>
+      </c>
+      <c r="D69" s="2">
+        <v>-449.3331657</v>
+      </c>
+      <c r="E69" s="2">
+        <v>2.8955858750000001</v>
+      </c>
+      <c r="F69" s="2">
+        <v>-61.942467499999999</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H69" s="6">
+        <f t="shared" si="2"/>
+        <v>6.4441846185314877E-3</v>
+      </c>
+      <c r="I69" s="6">
+        <f t="shared" si="3"/>
+        <v>0.13785420758670697</v>
+      </c>
+      <c r="J69" t="str">
+        <f t="shared" si="4"/>
+        <v>(1,0.00644418461853149,0.137854207586707</v>
+      </c>
+    </row>
+    <row r="70" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C70" s="1">
+        <v>13</v>
+      </c>
+      <c r="D70" s="2">
+        <v>-448.05270000000002</v>
+      </c>
+      <c r="E70" s="2">
+        <v>30.941809379999999</v>
+      </c>
+      <c r="F70" s="2">
+        <v>-176.95502819999999</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H70" s="6">
+        <f t="shared" si="2"/>
+        <v>6.9058415181964081E-2</v>
+      </c>
+      <c r="I70" s="6">
+        <f t="shared" si="3"/>
+        <v>0.39494244360094244</v>
+      </c>
+      <c r="J70" t="str">
+        <f t="shared" si="4"/>
+        <v>(1,0.0690584151819641,0.394942443600942</v>
+      </c>
+    </row>
+    <row r="71" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C71" s="1">
+        <v>14</v>
+      </c>
+      <c r="D71" s="2">
+        <v>-1474.017625</v>
+      </c>
+      <c r="E71" s="2">
+        <v>-155.11935</v>
+      </c>
+      <c r="F71" s="2">
+        <v>-209.19045</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H71" s="6">
+        <f t="shared" si="2"/>
+        <v>0.10523574980997938</v>
+      </c>
+      <c r="I71" s="6">
+        <f t="shared" si="3"/>
+        <v>0.14191855406070875</v>
+      </c>
+      <c r="J71" t="str">
+        <f t="shared" si="4"/>
+        <v>(1,0.105235749809979,0.141918554060709</v>
+      </c>
+    </row>
+    <row r="72" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C72" s="1">
+        <v>15</v>
+      </c>
+      <c r="D72" s="2">
+        <v>-2782.6806879999999</v>
+      </c>
+      <c r="E72" s="2">
+        <v>-715.9270563</v>
+      </c>
+      <c r="F72" s="2">
+        <v>-126.92502500000001</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H72" s="6">
+        <f t="shared" si="2"/>
+        <v>0.25727962945491933</v>
+      </c>
+      <c r="I72" s="6">
+        <f t="shared" si="3"/>
+        <v>4.5612500761352183E-2</v>
+      </c>
+      <c r="J72" t="str">
+        <f t="shared" si="4"/>
+        <v>(1,0.257279629454919,0.0456125007613522</v>
+      </c>
+    </row>
+    <row r="73" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C73" s="1">
+        <v>16</v>
+      </c>
+      <c r="D73" s="2">
+        <v>-2831.1223749999999</v>
+      </c>
+      <c r="E73" s="2">
+        <v>-585.61413440000001</v>
+      </c>
+      <c r="F73" s="2">
+        <v>22.45525632</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H73" s="6">
+        <f t="shared" si="2"/>
+        <v>0.20684875354425469</v>
+      </c>
+      <c r="I73" s="6">
+        <f t="shared" si="3"/>
+        <v>7.9315738939048867E-3</v>
+      </c>
+      <c r="J73" t="str">
+        <f t="shared" si="4"/>
+        <v>(1,0.206848753544255,0.00793157389390489</v>
+      </c>
+    </row>
+    <row r="74" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C74" s="1">
+        <v>17</v>
+      </c>
+      <c r="D74" s="2">
+        <v>-1670.3654690000001</v>
+      </c>
+      <c r="E74" s="2">
+        <v>-65.819476249999994</v>
+      </c>
+      <c r="F74" s="2">
+        <v>-324.79375320000003</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H74" s="6">
+        <f t="shared" si="2"/>
+        <v>3.9404236660498151E-2</v>
+      </c>
+      <c r="I74" s="6">
+        <f t="shared" si="3"/>
+        <v>0.19444472435989996</v>
+      </c>
+      <c r="J74" t="str">
+        <f t="shared" si="4"/>
+        <v>(1,0.0394042366604982,0.1944447243599</v>
+      </c>
+    </row>
+    <row r="75" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C75" s="1">
+        <v>18</v>
+      </c>
+      <c r="D75" s="2">
+        <v>-531.50832500000001</v>
+      </c>
+      <c r="E75" s="2">
+        <v>7.9851393750000002</v>
+      </c>
+      <c r="F75" s="2">
+        <v>-284.7068688</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H75" s="6">
+        <f t="shared" si="2"/>
+        <v>1.5023545256793485E-2</v>
+      </c>
+      <c r="I75" s="6">
+        <f t="shared" si="3"/>
+        <v>0.53565834326301476</v>
+      </c>
+      <c r="J75" t="str">
+        <f t="shared" si="4"/>
+        <v>(1,0.0150235452567935,0.535658343263015</v>
+      </c>
+    </row>
+    <row r="78" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I78" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="79" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I79" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="80" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I80" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="81" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I81" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="82" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I82" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="83" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I83" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="84" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I84" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="85" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I85" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="86" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I86" t="s">
+        <v>94</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/wing_optimization_SSCC/loads/evolution.xlsx
+++ b/wing_optimization_SSCC/loads/evolution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repositories\compositeoptimization\wing_optimization_SSCC\loads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1027140B-A9C2-4ED3-A926-121DA0F71FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9759E061-F1FD-47DD-8857-4D172489BC94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-18666" yWindow="2405" windowWidth="18775" windowHeight="10066" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="97">
   <si>
     <t>iteration</t>
   </si>
@@ -314,6 +314,12 @@
   </si>
   <si>
     <t>(0.01,0.53)</t>
+  </si>
+  <si>
+    <t>nev</t>
+  </si>
+  <si>
+    <t>n runs</t>
   </si>
 </sst>
 </file>
@@ -9173,10 +9179,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -9295,6 +9301,12 @@
         <v>78</v>
       </c>
     </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <f>0.7*60</f>
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9304,8 +9316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE25C2AA-23FC-4FBB-AF98-456EBBDF3AAC}">
   <dimension ref="A1:Z86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I77" sqref="I77"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J59" sqref="J59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -11925,9 +11937,23 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
+      <c r="I58" t="s">
+        <v>95</v>
+      </c>
+      <c r="J58">
+        <f>SUM(J2:J55)</f>
+        <v>3585</v>
+      </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
+      <c r="I59" t="s">
+        <v>96</v>
+      </c>
+      <c r="J59">
+        <f>J58/54</f>
+        <v>66.388888888888886</v>
+      </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>

--- a/wing_optimization_SSCC/loads/evolution.xlsx
+++ b/wing_optimization_SSCC/loads/evolution.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repositories\compositeoptimization\wing_optimization_SSCC\loads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pichau\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9759E061-F1FD-47DD-8857-4D172489BC94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81936E2-B30C-41C2-9088-6450622A7F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18666" yWindow="2405" windowWidth="18775" windowHeight="10066" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="time" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="99">
   <si>
     <t>iteration</t>
   </si>
@@ -321,6 +321,12 @@
   <si>
     <t>n runs</t>
   </si>
+  <si>
+    <t>max diff</t>
+  </si>
+  <si>
+    <t>average diff</t>
+  </si>
 </sst>
 </file>
 
@@ -329,7 +335,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -345,16 +351,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -377,11 +396,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -393,9 +422,12 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -3944,25 +3976,23 @@
       <c:pivotFmt>
         <c:idx val="12"/>
         <c:spPr>
-          <a:ln w="28575" cap="rnd">
+          <a:ln w="12700" cap="rnd">
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent6"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
+          <c:symbol val="triangle"/>
+          <c:size val="9"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent6"/>
             </a:solidFill>
             <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -3990,9 +4020,9 @@
                       <a:lumOff val="25000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="pt-BR"/>
@@ -4012,25 +4042,24 @@
       <c:pivotFmt>
         <c:idx val="13"/>
         <c:spPr>
-          <a:ln w="28575" cap="rnd">
+          <a:ln w="12700" cap="rnd">
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent6"/>
             </a:solidFill>
+            <a:prstDash val="dash"/>
             <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
+          <c:symbol val="triangle"/>
+          <c:size val="9"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent6"/>
             </a:solidFill>
             <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -4058,9 +4087,9 @@
                       <a:lumOff val="25000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="pt-BR"/>
@@ -4080,25 +4109,24 @@
       <c:pivotFmt>
         <c:idx val="14"/>
         <c:spPr>
-          <a:ln w="28575" cap="rnd">
+          <a:ln w="12700" cap="rnd">
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent6"/>
             </a:solidFill>
+            <a:prstDash val="sysDot"/>
             <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
+          <c:symbol val="triangle"/>
+          <c:size val="9"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:schemeClr val="accent6"/>
             </a:solidFill>
             <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -4126,9 +4154,9 @@
                       <a:lumOff val="25000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="pt-BR"/>
@@ -4148,25 +4176,24 @@
       <c:pivotFmt>
         <c:idx val="15"/>
         <c:spPr>
-          <a:ln w="28575" cap="rnd">
+          <a:ln w="12700" cap="rnd">
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="FF0000"/>
             </a:solidFill>
+            <a:prstDash val="sysDot"/>
             <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
+          <c:symbol val="square"/>
+          <c:size val="9"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent4"/>
+              <a:srgbClr val="FF0000"/>
             </a:solidFill>
             <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -4194,9 +4221,9 @@
                       <a:lumOff val="25000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="pt-BR"/>
@@ -4216,25 +4243,24 @@
       <c:pivotFmt>
         <c:idx val="16"/>
         <c:spPr>
-          <a:ln w="28575" cap="rnd">
+          <a:ln w="12700" cap="rnd">
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="FF0000"/>
             </a:solidFill>
+            <a:prstDash val="dash"/>
             <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
+          <c:symbol val="x"/>
+          <c:size val="9"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent5"/>
+              <a:srgbClr val="FF0000"/>
             </a:solidFill>
             <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -4262,9 +4288,9 @@
                       <a:lumOff val="25000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="pt-BR"/>
@@ -4284,25 +4310,23 @@
       <c:pivotFmt>
         <c:idx val="17"/>
         <c:spPr>
-          <a:ln w="28575" cap="rnd">
+          <a:ln w="12700" cap="rnd">
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="FF0000"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
+          <c:symbol val="square"/>
+          <c:size val="9"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent6"/>
+              <a:srgbClr val="FF0000"/>
             </a:solidFill>
             <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -4330,9 +4354,9 @@
                       <a:lumOff val="25000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="pt-BR"/>
@@ -4352,9 +4376,11 @@
       <c:pivotFmt>
         <c:idx val="18"/>
         <c:spPr>
-          <a:ln w="28575" cap="rnd">
+          <a:ln w="12700" cap="rnd">
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -4362,19 +4388,15 @@
         </c:spPr>
         <c:marker>
           <c:symbol val="circle"/>
-          <c:size val="5"/>
+          <c:size val="9"/>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
+                <a:lumMod val="50000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -4402,9 +4424,9 @@
                       <a:lumOff val="25000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="pt-BR"/>
@@ -4424,29 +4446,28 @@
       <c:pivotFmt>
         <c:idx val="19"/>
         <c:spPr>
-          <a:ln w="28575" cap="rnd">
+          <a:ln w="12700" cap="rnd">
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
             </a:solidFill>
+            <a:prstDash val="dash"/>
             <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
         <c:marker>
           <c:symbol val="circle"/>
-          <c:size val="5"/>
+          <c:size val="9"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="60000"/>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="50000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -4474,9 +4495,9 @@
                       <a:lumOff val="25000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="pt-BR"/>
@@ -4496,29 +4517,28 @@
       <c:pivotFmt>
         <c:idx val="20"/>
         <c:spPr>
-          <a:ln w="28575" cap="rnd">
+          <a:ln w="12700" cap="rnd">
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
             </a:solidFill>
+            <a:prstDash val="sysDot"/>
             <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
         <c:marker>
           <c:symbol val="circle"/>
-          <c:size val="5"/>
+          <c:size val="9"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3">
-                <a:lumMod val="60000"/>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="50000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -4546,9 +4566,112 @@
                       <a:lumOff val="25000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="21"/>
+        <c:spPr>
+          <a:ln w="12700" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:prstDash val="sysDot"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="triangle"/>
+          <c:size val="9"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="22"/>
+        <c:spPr>
+          <a:ln w="12700" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="dash"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="9"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="-5.433560700549768E-3"/>
+              <c:y val="-1.7268429676123687E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="pt-BR"/>
@@ -4586,25 +4709,23 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="triangle"/>
+            <c:size val="9"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -4631,9 +4752,9 @@
                         <a:lumOff val="25000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="pt-BR"/>
@@ -4741,25 +4862,24 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="triangle"/>
+            <c:size val="9"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -4786,9 +4906,9 @@
                         <a:lumOff val="25000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="pt-BR"/>
@@ -4896,25 +5016,24 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
+              <a:prstDash val="sysDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="triangle"/>
+            <c:size val="9"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -4941,9 +5060,9 @@
                         <a:lumOff val="25000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="pt-BR"/>
@@ -5051,25 +5170,24 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
+              <a:prstDash val="sysDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="square"/>
+            <c:size val="9"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -5096,9 +5214,9 @@
                         <a:lumOff val="25000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="pt-BR"/>
@@ -5206,25 +5324,24 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="x"/>
+            <c:size val="9"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -5251,9 +5368,9 @@
                         <a:lumOff val="25000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="pt-BR"/>
@@ -5361,25 +5478,23 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="square"/>
+            <c:size val="9"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -5406,9 +5521,9 @@
                         <a:lumOff val="25000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="pt-BR"/>
@@ -5516,10 +5631,10 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
+                  <a:lumMod val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -5528,19 +5643,15 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="9"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
+                  <a:lumMod val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -5567,9 +5678,9 @@
                         <a:lumOff val="25000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="pt-BR"/>
@@ -5677,31 +5788,193 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="9"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.433560700549768E-3"/>
+                  <c:y val="-1.7268429676123687E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-BE0A-41BE-B1EA-1A2A0D50DAD1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>results!$P$5:$P$11</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>results!$X$5:$X$11</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-5A1B-410B-A5B7-EFF2C4FDCC9A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>results!$Y$3:$Y$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -5728,170 +6001,9 @@
                         <a:lumOff val="25000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="pt-BR"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>results!$P$5:$P$11</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>results!$X$5:$X$11</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>125</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-5A1B-410B-A5B7-EFF2C4FDCC9A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>results!$Y$3:$Y$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>18</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="pt-BR"/>
@@ -6128,20 +6240,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -6258,16 +6356,16 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="pt-BR"/>
@@ -8481,7 +8579,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B6FDBE7E-0527-4CC7-B1FB-19778B602903}" name="Tabela dinâmica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B6FDBE7E-0527-4CC7-B1FB-19778B602903}" name="Tabela dinâmica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
   <location ref="P3:Z11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField axis="axisRow" showAll="0">
@@ -8605,7 +8703,7 @@
       </pivotArea>
     </format>
   </formats>
-  <chartFormats count="27">
+  <chartFormats count="58">
     <chartFormat chart="0" format="9" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -8892,6 +8990,390 @@
       </pivotArea>
     </chartFormat>
     <chartFormat chart="0" format="26" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="21" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="23" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="24" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="25" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="26" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="27" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="28" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="29" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="11" format="23" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="11" format="24" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="11" format="25" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="11" format="26" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="11" format="27" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="11" format="28" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="11" format="29" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="11" format="30" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="11" format="31">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="11" format="32" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="12" format="33" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="12" format="34" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="12" format="35" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="12" format="36" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="12" format="37" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="12" format="38" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="12" format="39" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="12" format="40" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="12" format="41">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="12" format="42" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -9314,10 +9796,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE25C2AA-23FC-4FBB-AF98-456EBBDF3AAC}">
-  <dimension ref="A1:Z86"/>
+  <dimension ref="A1:AC86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J59" sqref="J59"/>
+    <sheetView tabSelected="1" topLeftCell="I24" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -11642,7 +12124,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>5</v>
       </c>
@@ -11683,7 +12165,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>5</v>
       </c>
@@ -11724,7 +12206,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>5</v>
       </c>
@@ -11765,7 +12247,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>5</v>
       </c>
@@ -11806,7 +12288,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>5</v>
       </c>
@@ -11847,7 +12329,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>5</v>
       </c>
@@ -11888,7 +12370,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>5</v>
       </c>
@@ -11929,13 +12411,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="I58" t="s">
         <v>95</v>
@@ -11945,7 +12427,7 @@
         <v>3585</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="I59" t="s">
         <v>96</v>
@@ -11955,29 +12437,161 @@
         <v>66.388888888888886</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
+      <c r="P62" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q62" s="7">
+        <v>10</v>
+      </c>
+      <c r="R62" s="7">
+        <v>11</v>
+      </c>
+      <c r="S62" s="7">
+        <v>12</v>
+      </c>
+      <c r="T62" s="7">
+        <v>13</v>
+      </c>
+      <c r="U62" s="7">
+        <v>14</v>
+      </c>
+      <c r="V62" s="7">
+        <v>15</v>
+      </c>
+      <c r="W62" s="7">
+        <v>16</v>
+      </c>
+      <c r="X62" s="7">
+        <v>17</v>
+      </c>
+      <c r="Y62" s="7">
+        <v>18</v>
+      </c>
+      <c r="Z62" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
+      <c r="P63" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="2">
+        <v>148</v>
+      </c>
+      <c r="R63" s="2">
+        <v>122</v>
+      </c>
+      <c r="S63" s="2">
+        <v>83</v>
+      </c>
+      <c r="T63" s="2">
+        <v>84</v>
+      </c>
+      <c r="U63" s="2">
+        <v>124</v>
+      </c>
+      <c r="V63" s="2">
+        <v>153</v>
+      </c>
+      <c r="W63" s="2">
+        <v>153</v>
+      </c>
+      <c r="X63" s="2">
+        <v>123</v>
+      </c>
+      <c r="Y63" s="2">
+        <v>87</v>
+      </c>
+      <c r="Z63" s="2">
+        <v>1077</v>
+      </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
+      <c r="P64" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q64" s="2">
+        <v>148</v>
+      </c>
+      <c r="R64" s="2">
+        <v>121</v>
+      </c>
+      <c r="S64" s="2">
+        <v>82</v>
+      </c>
+      <c r="T64" s="2">
+        <v>83</v>
+      </c>
+      <c r="U64" s="2">
+        <v>125</v>
+      </c>
+      <c r="V64" s="2">
+        <v>156</v>
+      </c>
+      <c r="W64" s="2">
+        <v>156</v>
+      </c>
+      <c r="X64" s="2">
+        <v>123</v>
+      </c>
+      <c r="Y64" s="2">
+        <v>86</v>
+      </c>
+      <c r="Z64" s="2">
+        <v>1080</v>
+      </c>
     </row>
-    <row r="65" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:29" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
         <v>80</v>
       </c>
+      <c r="P65" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q65" s="2">
+        <v>151</v>
+      </c>
+      <c r="R65" s="2">
+        <v>122</v>
+      </c>
+      <c r="S65" s="2">
+        <v>81</v>
+      </c>
+      <c r="T65" s="2">
+        <v>84</v>
+      </c>
+      <c r="U65" s="2">
+        <v>124</v>
+      </c>
+      <c r="V65" s="2">
+        <v>156</v>
+      </c>
+      <c r="W65" s="2">
+        <v>157</v>
+      </c>
+      <c r="X65" s="2">
+        <v>123</v>
+      </c>
+      <c r="Y65" s="2">
+        <v>85</v>
+      </c>
+      <c r="Z65" s="2">
+        <v>1083</v>
+      </c>
     </row>
-    <row r="66" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>85</v>
       </c>
@@ -11999,8 +12613,41 @@
       <c r="I66" t="s">
         <v>84</v>
       </c>
+      <c r="P66" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q66" s="2">
+        <v>151</v>
+      </c>
+      <c r="R66" s="2">
+        <v>121</v>
+      </c>
+      <c r="S66" s="2">
+        <v>81</v>
+      </c>
+      <c r="T66" s="2">
+        <v>82</v>
+      </c>
+      <c r="U66" s="2">
+        <v>124</v>
+      </c>
+      <c r="V66" s="2">
+        <v>157</v>
+      </c>
+      <c r="W66" s="2">
+        <v>157</v>
+      </c>
+      <c r="X66" s="2">
+        <v>124</v>
+      </c>
+      <c r="Y66" s="2">
+        <v>86</v>
+      </c>
+      <c r="Z66" s="2">
+        <v>1083</v>
+      </c>
     </row>
-    <row r="67" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C67" s="1">
         <v>10</v>
       </c>
@@ -12029,8 +12676,41 @@
         <f>_xlfn.CONCAT("(",G67,",",H67,",",I67)</f>
         <v>(1,0.251843973088057,0.120765153700999</v>
       </c>
+      <c r="P67" s="4">
+        <v>4</v>
+      </c>
+      <c r="Q67" s="2">
+        <v>149</v>
+      </c>
+      <c r="R67" s="2">
+        <v>120</v>
+      </c>
+      <c r="S67" s="2">
+        <v>79</v>
+      </c>
+      <c r="T67" s="2">
+        <v>81</v>
+      </c>
+      <c r="U67" s="2">
+        <v>125</v>
+      </c>
+      <c r="V67" s="2">
+        <v>159</v>
+      </c>
+      <c r="W67" s="2">
+        <v>156</v>
+      </c>
+      <c r="X67" s="2">
+        <v>125</v>
+      </c>
+      <c r="Y67" s="2">
+        <v>87</v>
+      </c>
+      <c r="Z67" s="2">
+        <v>1081</v>
+      </c>
     </row>
-    <row r="68" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C68" s="1">
         <v>11</v>
       </c>
@@ -12059,8 +12739,42 @@
         <f t="shared" ref="J68:J75" si="4">_xlfn.CONCAT("(",G68,",",H68,",",I68)</f>
         <v>(1,0.0268072304546605,0.0196957732506708</v>
       </c>
+      <c r="P68" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q68" s="2">
+        <v>151</v>
+      </c>
+      <c r="R68" s="2">
+        <v>121</v>
+      </c>
+      <c r="S68" s="2">
+        <v>80</v>
+      </c>
+      <c r="T68" s="2">
+        <v>80</v>
+      </c>
+      <c r="U68" s="2">
+        <v>124</v>
+      </c>
+      <c r="V68" s="2">
+        <v>158</v>
+      </c>
+      <c r="W68" s="2">
+        <v>156</v>
+      </c>
+      <c r="X68" s="2">
+        <v>125</v>
+      </c>
+      <c r="Y68" s="2">
+        <v>87</v>
+      </c>
+      <c r="Z68" s="2">
+        <v>1082</v>
+      </c>
+      <c r="AC68" s="2"/>
     </row>
-    <row r="69" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C69" s="1">
         <v>12</v>
       </c>
@@ -12089,8 +12803,9 @@
         <f t="shared" si="4"/>
         <v>(1,0.00644418461853149,0.137854207586707</v>
       </c>
+      <c r="AC69" s="8"/>
     </row>
-    <row r="70" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C70" s="1">
         <v>13</v>
       </c>
@@ -12120,7 +12835,7 @@
         <v>(1,0.0690584151819641,0.394942443600942</v>
       </c>
     </row>
-    <row r="71" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C71" s="1">
         <v>14</v>
       </c>
@@ -12149,8 +12864,41 @@
         <f t="shared" si="4"/>
         <v>(1,0.105235749809979,0.141918554060709</v>
       </c>
+      <c r="Q71" s="7">
+        <v>10</v>
+      </c>
+      <c r="R71" s="7">
+        <v>11</v>
+      </c>
+      <c r="S71" s="7">
+        <v>12</v>
+      </c>
+      <c r="T71" s="7">
+        <v>13</v>
+      </c>
+      <c r="U71" s="7">
+        <v>14</v>
+      </c>
+      <c r="V71" s="7">
+        <v>15</v>
+      </c>
+      <c r="W71" s="7">
+        <v>16</v>
+      </c>
+      <c r="X71" s="7">
+        <v>17</v>
+      </c>
+      <c r="Y71" s="7">
+        <v>18</v>
+      </c>
+      <c r="Z71" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA71" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="72" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C72" s="1">
         <v>15</v>
       </c>
@@ -12179,8 +12927,55 @@
         <f t="shared" si="4"/>
         <v>(1,0.257279629454919,0.0456125007613522</v>
       </c>
+      <c r="P72" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q72" s="2">
+        <f>ABS(Q64-Q63)</f>
+        <v>0</v>
+      </c>
+      <c r="R72" s="2">
+        <f t="shared" ref="R72:Y72" si="5">ABS(R64-R63)</f>
+        <v>1</v>
+      </c>
+      <c r="S72" s="2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="T72" s="2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="U72" s="2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="V72" s="2">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="W72" s="2">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="X72" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y72" s="2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Z72" s="2">
+        <f>MAX(Q72:Y72)</f>
+        <v>3</v>
+      </c>
+      <c r="AA72" s="5">
+        <f>AVERAGE(Q72:Y72)</f>
+        <v>1.2222222222222223</v>
+      </c>
     </row>
-    <row r="73" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C73" s="1">
         <v>16</v>
       </c>
@@ -12209,8 +13004,55 @@
         <f t="shared" si="4"/>
         <v>(1,0.206848753544255,0.00793157389390489</v>
       </c>
+      <c r="P73" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q73" s="2">
+        <f t="shared" ref="Q73:Y73" si="6">ABS(Q65-Q64)</f>
+        <v>3</v>
+      </c>
+      <c r="R73" s="2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="S73" s="2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="T73" s="2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="U73" s="2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="V73" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W73" s="2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="X73" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y73" s="2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Z73" s="2">
+        <f t="shared" ref="Z73:Z76" si="7">MAX(Q73:Y73)</f>
+        <v>3</v>
+      </c>
+      <c r="AA73" s="5">
+        <f t="shared" ref="AA73:AA76" si="8">AVERAGE(Q73:Y73)</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="74" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C74" s="1">
         <v>17</v>
       </c>
@@ -12239,8 +13081,55 @@
         <f t="shared" si="4"/>
         <v>(1,0.0394042366604982,0.1944447243599</v>
       </c>
+      <c r="P74" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q74" s="2">
+        <f t="shared" ref="Q74:Y74" si="9">ABS(Q66-Q65)</f>
+        <v>0</v>
+      </c>
+      <c r="R74" s="2">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="S74" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="T74" s="2">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="U74" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V74" s="2">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="W74" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X74" s="2">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="Y74" s="2">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="Z74" s="2">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AA74" s="5">
+        <f t="shared" si="8"/>
+        <v>0.66666666666666663</v>
+      </c>
     </row>
-    <row r="75" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C75" s="1">
         <v>18</v>
       </c>
@@ -12269,18 +13158,114 @@
         <f t="shared" si="4"/>
         <v>(1,0.0150235452567935,0.535658343263015</v>
       </c>
+      <c r="P75" s="4">
+        <v>4</v>
+      </c>
+      <c r="Q75" s="2">
+        <f t="shared" ref="Q75:Y75" si="10">ABS(Q67-Q66)</f>
+        <v>2</v>
+      </c>
+      <c r="R75" s="2">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="S75" s="2">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="T75" s="2">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="U75" s="2">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="V75" s="2">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="W75" s="2">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="X75" s="2">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Y75" s="2">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Z75" s="2">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AA75" s="5">
+        <f t="shared" si="8"/>
+        <v>1.3333333333333333</v>
+      </c>
     </row>
-    <row r="78" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="P76" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q76" s="2">
+        <f t="shared" ref="Q76:Y76" si="11">ABS(Q68-Q67)</f>
+        <v>2</v>
+      </c>
+      <c r="R76" s="2">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="S76" s="2">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="T76" s="2">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="U76" s="2">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="V76" s="2">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="W76" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X76" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y76" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Z76" s="2">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AA76" s="5">
+        <f t="shared" si="8"/>
+        <v>0.77777777777777779</v>
+      </c>
+    </row>
+    <row r="78" spans="3:29" x14ac:dyDescent="0.25">
       <c r="I78" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="79" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:29" x14ac:dyDescent="0.25">
       <c r="I79" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="80" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:29" x14ac:dyDescent="0.25">
       <c r="I80" t="s">
         <v>88</v>
       </c>
